--- a/Arbeitsprotokoll.xlsx
+++ b/Arbeitsprotokoll.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Brainstorming im Team</t>
   </si>
@@ -41,16 +41,7 @@
     <t>Zusammentragen und Überarbeiten des Pflichtenhefts</t>
   </si>
   <si>
-    <t>1.5 Stunden</t>
-  </si>
-  <si>
-    <t>2 Stunden</t>
-  </si>
-  <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>Zeit</t>
   </si>
   <si>
     <t>Arbeit</t>
@@ -98,10 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,91 +385,67 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43375</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43377</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43381</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43385</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43403</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43409</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43413</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
